--- a/validacao/validacao_rat_vi.xlsx
+++ b/validacao/validacao_rat_vi.xlsx
@@ -524,7 +524,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -602,7 +602,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -940,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -966,7 +966,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1070,7 +1070,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1174,7 +1174,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1668,7 +1668,7 @@
         <v>0</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -1798,7 +1798,7 @@
         <v>0</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1954,7 +1954,7 @@
         <v>0</v>
       </c>
       <c r="H58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2214,7 +2214,7 @@
         <v>0</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2370,7 +2370,7 @@
         <v>0</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -2708,7 +2708,7 @@
         <v>0</v>
       </c>
       <c r="H87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -2942,7 +2942,7 @@
         <v>0</v>
       </c>
       <c r="H96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -2994,7 +2994,7 @@
         <v>0</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3150,7 +3150,7 @@
         <v>0</v>
       </c>
       <c r="H104" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -3280,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="H109" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
@@ -3410,7 +3410,7 @@
         <v>0</v>
       </c>
       <c r="H114" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
@@ -3488,7 +3488,7 @@
         <v>0</v>
       </c>
       <c r="H117" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
@@ -3592,7 +3592,7 @@
         <v>0</v>
       </c>
       <c r="H121" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
@@ -3696,7 +3696,7 @@
         <v>0</v>
       </c>
       <c r="H125" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
@@ -4294,7 +4294,7 @@
         <v>0</v>
       </c>
       <c r="H148" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
@@ -4580,7 +4580,7 @@
         <v>0</v>
       </c>
       <c r="H159" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
@@ -4658,7 +4658,7 @@
         <v>0</v>
       </c>
       <c r="H162" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163">
@@ -4684,7 +4684,7 @@
         <v>0</v>
       </c>
       <c r="H163" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
@@ -4762,7 +4762,7 @@
         <v>0</v>
       </c>
       <c r="H166" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
@@ -4788,7 +4788,7 @@
         <v>0</v>
       </c>
       <c r="H167" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
@@ -5022,7 +5022,7 @@
         <v>0</v>
       </c>
       <c r="H176" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177">
@@ -5048,7 +5048,7 @@
         <v>0</v>
       </c>
       <c r="H177" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178">
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="H180" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
@@ -5204,7 +5204,7 @@
         <v>0</v>
       </c>
       <c r="H183" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184">
@@ -5256,7 +5256,7 @@
         <v>0</v>
       </c>
       <c r="H185" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186">
@@ -5334,7 +5334,7 @@
         <v>0</v>
       </c>
       <c r="H188" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189">
@@ -5594,7 +5594,7 @@
         <v>0</v>
       </c>
       <c r="H198" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199">
@@ -5750,7 +5750,7 @@
         <v>0</v>
       </c>
       <c r="H204" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205">
@@ -5776,7 +5776,7 @@
         <v>0</v>
       </c>
       <c r="H205" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206">
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="H220" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221">
@@ -6530,7 +6530,7 @@
         <v>0</v>
       </c>
       <c r="H234" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235">
@@ -6608,7 +6608,7 @@
         <v>0</v>
       </c>
       <c r="H237" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238">
@@ -6972,7 +6972,7 @@
         <v>0</v>
       </c>
       <c r="H251" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252">
@@ -7024,7 +7024,7 @@
         <v>0</v>
       </c>
       <c r="H253" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254">
@@ -7284,7 +7284,7 @@
         <v>0</v>
       </c>
       <c r="H263" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264">
@@ -7518,7 +7518,7 @@
         <v>0</v>
       </c>
       <c r="H272" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273">
@@ -7570,7 +7570,7 @@
         <v>0</v>
       </c>
       <c r="H274" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275">
@@ -7622,7 +7622,7 @@
         <v>0</v>
       </c>
       <c r="H276" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277">
@@ -7778,7 +7778,7 @@
         <v>0</v>
       </c>
       <c r="H282" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283">
@@ -7804,7 +7804,7 @@
         <v>0</v>
       </c>
       <c r="H283" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284">
@@ -7882,7 +7882,7 @@
         <v>0</v>
       </c>
       <c r="H286" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287">
@@ -8428,7 +8428,7 @@
         <v>0</v>
       </c>
       <c r="H307" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308">
@@ -8532,7 +8532,7 @@
         <v>0</v>
       </c>
       <c r="H311" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312">
@@ -8610,7 +8610,7 @@
         <v>0</v>
       </c>
       <c r="H314" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315">
@@ -8896,7 +8896,7 @@
         <v>0</v>
       </c>
       <c r="H325" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326">
@@ -8974,7 +8974,7 @@
         <v>0</v>
       </c>
       <c r="H328" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329">
@@ -9598,7 +9598,7 @@
         <v>0</v>
       </c>
       <c r="H352" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353">
@@ -10092,7 +10092,7 @@
         <v>0</v>
       </c>
       <c r="H371" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372">
@@ -10118,7 +10118,7 @@
         <v>0</v>
       </c>
       <c r="H372" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373">
@@ -10196,7 +10196,7 @@
         <v>0</v>
       </c>
       <c r="H375" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376">
@@ -10222,7 +10222,7 @@
         <v>0</v>
       </c>
       <c r="H376" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377">
@@ -10300,7 +10300,7 @@
         <v>0</v>
       </c>
       <c r="H379" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380">
@@ -10456,7 +10456,7 @@
         <v>0</v>
       </c>
       <c r="H385" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386">
@@ -10638,7 +10638,7 @@
         <v>0</v>
       </c>
       <c r="H392" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393">
@@ -10690,7 +10690,7 @@
         <v>0</v>
       </c>
       <c r="H394" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395">
@@ -10742,7 +10742,7 @@
         <v>0</v>
       </c>
       <c r="H396" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397">
@@ -10768,7 +10768,7 @@
         <v>0</v>
       </c>
       <c r="H397" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398">
@@ -10872,7 +10872,7 @@
         <v>0</v>
       </c>
       <c r="H401" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402">
@@ -11002,7 +11002,7 @@
         <v>0</v>
       </c>
       <c r="H406" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407">
@@ -11210,7 +11210,7 @@
         <v>0</v>
       </c>
       <c r="H414" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415">
@@ -11418,7 +11418,7 @@
         <v>0</v>
       </c>
       <c r="H422" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423">
@@ -11444,7 +11444,7 @@
         <v>0</v>
       </c>
       <c r="H423" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424">
@@ -11470,7 +11470,7 @@
         <v>0</v>
       </c>
       <c r="H424" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425">
@@ -11808,7 +11808,7 @@
         <v>0</v>
       </c>
       <c r="H437" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438">
@@ -12146,7 +12146,7 @@
         <v>0</v>
       </c>
       <c r="H450" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451">
@@ -12328,7 +12328,7 @@
         <v>0</v>
       </c>
       <c r="H457" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458">
@@ -12380,7 +12380,7 @@
         <v>0</v>
       </c>
       <c r="H459" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460">
@@ -12458,7 +12458,7 @@
         <v>0</v>
       </c>
       <c r="H462" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463">
@@ -12744,7 +12744,7 @@
         <v>0</v>
       </c>
       <c r="H473" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474">
@@ -13056,7 +13056,7 @@
         <v>0</v>
       </c>
       <c r="H485" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486">
@@ -13290,7 +13290,7 @@
         <v>0</v>
       </c>
       <c r="H494" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495">
@@ -13368,7 +13368,7 @@
         <v>0</v>
       </c>
       <c r="H497" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498">
@@ -13394,7 +13394,7 @@
         <v>0</v>
       </c>
       <c r="H498" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499">
@@ -13446,7 +13446,7 @@
         <v>0</v>
       </c>
       <c r="H500" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="501">
@@ -13524,7 +13524,7 @@
         <v>0</v>
       </c>
       <c r="H503" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504">
@@ -13680,7 +13680,7 @@
         <v>0</v>
       </c>
       <c r="H509" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510">
@@ -13706,7 +13706,7 @@
         <v>0</v>
       </c>
       <c r="H510" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511">
@@ -13940,7 +13940,7 @@
         <v>0</v>
       </c>
       <c r="H519" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="520">
@@ -13992,7 +13992,7 @@
         <v>0</v>
       </c>
       <c r="H521" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522">
@@ -14018,7 +14018,7 @@
         <v>0</v>
       </c>
       <c r="H522" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523">
@@ -14044,7 +14044,7 @@
         <v>0</v>
       </c>
       <c r="H523" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524">
@@ -14200,7 +14200,7 @@
         <v>0</v>
       </c>
       <c r="H529" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530">
@@ -14356,7 +14356,7 @@
         <v>0</v>
       </c>
       <c r="H535" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536">
@@ -14486,7 +14486,7 @@
         <v>0</v>
       </c>
       <c r="H540" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="541">
@@ -14512,7 +14512,7 @@
         <v>0</v>
       </c>
       <c r="H541" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="542">
@@ -14616,7 +14616,7 @@
         <v>0</v>
       </c>
       <c r="H545" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="546">
@@ -14642,7 +14642,7 @@
         <v>0</v>
       </c>
       <c r="H546" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="547">
@@ -14772,7 +14772,7 @@
         <v>0</v>
       </c>
       <c r="H551" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="552">
@@ -14824,7 +14824,7 @@
         <v>0</v>
       </c>
       <c r="H553" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="554">
@@ -14850,7 +14850,7 @@
         <v>0</v>
       </c>
       <c r="H554" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="555">
@@ -14876,7 +14876,7 @@
         <v>0</v>
       </c>
       <c r="H555" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="556">
@@ -14902,7 +14902,7 @@
         <v>0</v>
       </c>
       <c r="H556" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="557">
@@ -14980,7 +14980,7 @@
         <v>0</v>
       </c>
       <c r="H559" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="560">
@@ -15058,7 +15058,7 @@
         <v>0</v>
       </c>
       <c r="H562" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="563">
@@ -15188,7 +15188,7 @@
         <v>0</v>
       </c>
       <c r="H567" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="568">
@@ -15292,7 +15292,7 @@
         <v>0</v>
       </c>
       <c r="H571" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="572">
@@ -15448,7 +15448,7 @@
         <v>0</v>
       </c>
       <c r="H577" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="578">
@@ -15500,7 +15500,7 @@
         <v>0</v>
       </c>
       <c r="H579" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="580">
@@ -15578,7 +15578,7 @@
         <v>0</v>
       </c>
       <c r="H582" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="583">
@@ -15786,7 +15786,7 @@
         <v>0</v>
       </c>
       <c r="H590" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="591">
@@ -15968,7 +15968,7 @@
         <v>0</v>
       </c>
       <c r="H597" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="598">
@@ -16176,7 +16176,7 @@
         <v>0</v>
       </c>
       <c r="H605" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="606">
@@ -16228,7 +16228,7 @@
         <v>0</v>
       </c>
       <c r="H607" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="608">
@@ -16384,7 +16384,7 @@
         <v>0</v>
       </c>
       <c r="H613" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="614">
@@ -16618,7 +16618,7 @@
         <v>0</v>
       </c>
       <c r="H622" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="623">
@@ -16878,7 +16878,7 @@
         <v>0</v>
       </c>
       <c r="H632" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="633">
